--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Mmrn2</t>
   </si>
   <si>
     <t>Clec14a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H2">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I2">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J2">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.929107999999999</v>
+        <v>17.64818833333333</v>
       </c>
       <c r="N2">
-        <v>29.787324</v>
+        <v>52.944565</v>
       </c>
       <c r="O2">
-        <v>0.8066781947969482</v>
+        <v>0.8789818999961234</v>
       </c>
       <c r="P2">
-        <v>0.8066781947969482</v>
+        <v>0.8789818999961235</v>
       </c>
       <c r="Q2">
-        <v>407.159148765852</v>
+        <v>813.6774177184466</v>
       </c>
       <c r="R2">
-        <v>3664.432338892668</v>
+        <v>7323.09675946602</v>
       </c>
       <c r="S2">
-        <v>0.7541699835520633</v>
+        <v>0.8170268520695065</v>
       </c>
       <c r="T2">
-        <v>0.7541699835520633</v>
+        <v>0.8170268520695068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H3">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I3">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J3">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.894331</v>
       </c>
       <c r="N3">
-        <v>5.682993000000001</v>
+        <v>5.682993</v>
       </c>
       <c r="O3">
-        <v>0.1539025974365369</v>
+        <v>0.09434864531996191</v>
       </c>
       <c r="P3">
-        <v>0.1539025974365369</v>
+        <v>0.09434864531996193</v>
       </c>
       <c r="Q3">
-        <v>77.68010957688901</v>
+        <v>87.338956683316</v>
       </c>
       <c r="R3">
-        <v>699.1209861920011</v>
+        <v>786.0506101498439</v>
       </c>
       <c r="S3">
-        <v>0.1438847859356716</v>
+        <v>0.08769848012016042</v>
       </c>
       <c r="T3">
-        <v>0.1438847859356716</v>
+        <v>0.08769848012016045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H4">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I4">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J4">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4733450000000001</v>
+        <v>0.5024723333333333</v>
       </c>
       <c r="N4">
-        <v>1.420035</v>
+        <v>1.507417</v>
       </c>
       <c r="O4">
-        <v>0.03845633365214293</v>
+        <v>0.02502602974916229</v>
       </c>
       <c r="P4">
-        <v>0.03845633365214293</v>
+        <v>0.02502602974916229</v>
       </c>
       <c r="Q4">
-        <v>19.410278070555</v>
+        <v>23.16670600627067</v>
       </c>
       <c r="R4">
-        <v>174.692502634995</v>
+        <v>208.500354056436</v>
       </c>
       <c r="S4">
-        <v>0.03595313807287135</v>
+        <v>0.02326206979443611</v>
       </c>
       <c r="T4">
-        <v>0.03595313807287134</v>
+        <v>0.02326206979443612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H5">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I5">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J5">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01185166666666667</v>
+        <v>0.03299666666666667</v>
       </c>
       <c r="N5">
-        <v>0.035555</v>
+        <v>0.09898999999999999</v>
       </c>
       <c r="O5">
-        <v>0.0009628741143717879</v>
+        <v>0.001643424934752344</v>
       </c>
       <c r="P5">
-        <v>0.0009628741143717878</v>
+        <v>0.001643424934752345</v>
       </c>
       <c r="Q5">
-        <v>0.4859967795150001</v>
+        <v>1.521325703213333</v>
       </c>
       <c r="R5">
-        <v>4.373971015635001</v>
+        <v>13.69193132892</v>
       </c>
       <c r="S5">
-        <v>0.0009001988149453647</v>
+        <v>0.001527588111949932</v>
       </c>
       <c r="T5">
-        <v>0.0009001988149453645</v>
+        <v>0.001527588111949932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I6">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J6">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.929107999999999</v>
+        <v>17.64818833333333</v>
       </c>
       <c r="N6">
-        <v>29.787324</v>
+        <v>52.944565</v>
       </c>
       <c r="O6">
-        <v>0.8066781947969482</v>
+        <v>0.8789818999961234</v>
       </c>
       <c r="P6">
-        <v>0.8066781947969482</v>
+        <v>0.8789818999961235</v>
       </c>
       <c r="Q6">
-        <v>20.54195754479866</v>
+        <v>36.51167209440611</v>
       </c>
       <c r="R6">
-        <v>184.877617903188</v>
+        <v>328.6050488496549</v>
       </c>
       <c r="S6">
-        <v>0.03804931764556067</v>
+        <v>0.03666196930809867</v>
       </c>
       <c r="T6">
-        <v>0.03804931764556065</v>
+        <v>0.03666196930809867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I7">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J7">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.894331</v>
       </c>
       <c r="N7">
-        <v>5.682993000000001</v>
+        <v>5.682993</v>
       </c>
       <c r="O7">
-        <v>0.1539025974365369</v>
+        <v>0.09434864531996191</v>
       </c>
       <c r="P7">
-        <v>0.1539025974365369</v>
+        <v>0.09434864531996193</v>
       </c>
       <c r="Q7">
-        <v>3.919110052765667</v>
+        <v>3.919110052765666</v>
       </c>
       <c r="R7">
-        <v>35.271990474891</v>
+        <v>35.27199047489099</v>
       </c>
       <c r="S7">
-        <v>0.007259262558613785</v>
+        <v>0.003935242738213819</v>
       </c>
       <c r="T7">
-        <v>0.007259262558613783</v>
+        <v>0.003935242738213821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I8">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J8">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4733450000000001</v>
+        <v>0.5024723333333333</v>
       </c>
       <c r="N8">
-        <v>1.420035</v>
+        <v>1.507417</v>
       </c>
       <c r="O8">
-        <v>0.03845633365214293</v>
+        <v>0.02502602974916229</v>
       </c>
       <c r="P8">
-        <v>0.03845633365214293</v>
+        <v>0.02502602974916229</v>
       </c>
       <c r="Q8">
-        <v>0.9792856411716667</v>
+        <v>1.039546083975444</v>
       </c>
       <c r="R8">
-        <v>8.813570770544999</v>
+        <v>9.355914755778999</v>
       </c>
       <c r="S8">
-        <v>0.00181390455828841</v>
+        <v>0.001043825287609902</v>
       </c>
       <c r="T8">
-        <v>0.001813904558288409</v>
+        <v>0.001043825287609903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I9">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J9">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01185166666666667</v>
+        <v>0.03299666666666667</v>
       </c>
       <c r="N9">
-        <v>0.035555</v>
+        <v>0.09898999999999999</v>
       </c>
       <c r="O9">
-        <v>0.0009628741143717879</v>
+        <v>0.001643424934752344</v>
       </c>
       <c r="P9">
-        <v>0.0009628741143717878</v>
+        <v>0.001643424934752345</v>
       </c>
       <c r="Q9">
-        <v>0.02451946675388889</v>
+        <v>0.06826556079222222</v>
       </c>
       <c r="R9">
-        <v>0.220675200785</v>
+        <v>0.6143900471299999</v>
       </c>
       <c r="S9">
-        <v>4.541675139693347E-05</v>
+        <v>6.854657020618994E-05</v>
       </c>
       <c r="T9">
-        <v>4.541675139693345E-05</v>
+        <v>6.854657020618997E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H10">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I10">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J10">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.929107999999999</v>
+        <v>17.64818833333333</v>
       </c>
       <c r="N10">
-        <v>29.787324</v>
+        <v>52.944565</v>
       </c>
       <c r="O10">
-        <v>0.8066781947969482</v>
+        <v>0.8789818999961234</v>
       </c>
       <c r="P10">
-        <v>0.8066781947969482</v>
+        <v>0.8789818999961235</v>
       </c>
       <c r="Q10">
-        <v>7.806026411008</v>
+        <v>24.32152131873444</v>
       </c>
       <c r="R10">
-        <v>70.25423769907201</v>
+        <v>218.89369186861</v>
       </c>
       <c r="S10">
-        <v>0.01445889359932422</v>
+        <v>0.02442163880657555</v>
       </c>
       <c r="T10">
-        <v>0.01445889359932422</v>
+        <v>0.02442163880657556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H11">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I11">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J11">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.894331</v>
       </c>
       <c r="N11">
-        <v>5.682993000000001</v>
+        <v>5.682993</v>
       </c>
       <c r="O11">
-        <v>0.1539025974365369</v>
+        <v>0.09434864531996191</v>
       </c>
       <c r="P11">
-        <v>0.1539025974365369</v>
+        <v>0.09434864531996193</v>
       </c>
       <c r="Q11">
-        <v>1.489277568256</v>
+        <v>2.610636906804667</v>
       </c>
       <c r="R11">
-        <v>13.403498114304</v>
+        <v>23.495732161242</v>
       </c>
       <c r="S11">
-        <v>0.002758548942251556</v>
+        <v>0.002621383373086495</v>
       </c>
       <c r="T11">
-        <v>0.002758548942251555</v>
+        <v>0.002621383373086496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H12">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I12">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J12">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4733450000000001</v>
+        <v>0.5024723333333333</v>
       </c>
       <c r="N12">
-        <v>1.420035</v>
+        <v>1.507417</v>
       </c>
       <c r="O12">
-        <v>0.03845633365214293</v>
+        <v>0.02502602974916229</v>
       </c>
       <c r="P12">
-        <v>0.03845633365214293</v>
+        <v>0.02502602974916229</v>
       </c>
       <c r="Q12">
-        <v>0.3721324787200001</v>
+        <v>0.6924728666997777</v>
       </c>
       <c r="R12">
-        <v>3.349192308480001</v>
+        <v>6.232255800298001</v>
       </c>
       <c r="S12">
-        <v>0.0006892910209831665</v>
+        <v>0.0006953233727558569</v>
       </c>
       <c r="T12">
-        <v>0.0006892910209831662</v>
+        <v>0.0006953233727558572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.378131333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.134394</v>
+      </c>
+      <c r="I13">
+        <v>0.02778400648145685</v>
+      </c>
+      <c r="J13">
+        <v>0.02778400648145685</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.03299666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09898999999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.001643424934752344</v>
+      </c>
+      <c r="P13">
+        <v>0.001643424934752345</v>
+      </c>
+      <c r="Q13">
+        <v>0.04547374022888889</v>
+      </c>
+      <c r="R13">
+        <v>0.40926366206</v>
+      </c>
+      <c r="S13">
+        <v>4.566092903894694E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.566092903894695E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7861760000000001</v>
-      </c>
-      <c r="H13">
-        <v>2.358528</v>
-      </c>
-      <c r="I13">
-        <v>0.01792399211058844</v>
-      </c>
-      <c r="J13">
-        <v>0.01792399211058843</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.01185166666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.035555</v>
-      </c>
-      <c r="O13">
-        <v>0.0009628741143717879</v>
-      </c>
-      <c r="P13">
-        <v>0.0009628741143717878</v>
-      </c>
-      <c r="Q13">
-        <v>0.009317495893333336</v>
-      </c>
-      <c r="R13">
-        <v>0.08385746304000001</v>
-      </c>
-      <c r="S13">
-        <v>1.725854802948976E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.725854802948975E-05</v>
+      <c r="G14">
+        <v>0.049176</v>
+      </c>
+      <c r="H14">
+        <v>0.147528</v>
+      </c>
+      <c r="I14">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J14">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.64818833333333</v>
+      </c>
+      <c r="N14">
+        <v>52.944565</v>
+      </c>
+      <c r="O14">
+        <v>0.8789818999961234</v>
+      </c>
+      <c r="P14">
+        <v>0.8789818999961235</v>
+      </c>
+      <c r="Q14">
+        <v>0.86786730948</v>
+      </c>
+      <c r="R14">
+        <v>7.810805785319999</v>
+      </c>
+      <c r="S14">
+        <v>0.0008714398119425668</v>
+      </c>
+      <c r="T14">
+        <v>0.0008714398119425671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.049176</v>
+      </c>
+      <c r="H15">
+        <v>0.147528</v>
+      </c>
+      <c r="I15">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J15">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.894331</v>
+      </c>
+      <c r="N15">
+        <v>5.682993</v>
+      </c>
+      <c r="O15">
+        <v>0.09434864531996191</v>
+      </c>
+      <c r="P15">
+        <v>0.09434864531996193</v>
+      </c>
+      <c r="Q15">
+        <v>0.09315562125599999</v>
+      </c>
+      <c r="R15">
+        <v>0.8384005913039999</v>
+      </c>
+      <c r="S15">
+        <v>9.353908850116954E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.353908850116958E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.049176</v>
+      </c>
+      <c r="H16">
+        <v>0.147528</v>
+      </c>
+      <c r="I16">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J16">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5024723333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.507417</v>
+      </c>
+      <c r="O16">
+        <v>0.02502602974916229</v>
+      </c>
+      <c r="P16">
+        <v>0.02502602974916229</v>
+      </c>
+      <c r="Q16">
+        <v>0.024709579464</v>
+      </c>
+      <c r="R16">
+        <v>0.222386215176</v>
+      </c>
+      <c r="S16">
+        <v>2.481129436041316E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.481129436041318E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.049176</v>
+      </c>
+      <c r="H17">
+        <v>0.147528</v>
+      </c>
+      <c r="I17">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J17">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.03299666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09898999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001643424934752344</v>
+      </c>
+      <c r="P17">
+        <v>0.001643424934752345</v>
+      </c>
+      <c r="Q17">
+        <v>0.00162264408</v>
+      </c>
+      <c r="R17">
+        <v>0.01460379672</v>
+      </c>
+      <c r="S17">
+        <v>1.629323557275325E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.629323557275326E-06</v>
       </c>
     </row>
   </sheetData>
